--- a/Experiments/Measurements/Two Banners Side by Side/Straight Path/Antenna_3/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/Straight Path/Antenna_3/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>161.9272024799336</v>
       </c>
       <c r="H30" t="n">
-        <v>86.61677063121168</v>
+        <v>86.61677063121166</v>
       </c>
     </row>
     <row r="31">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>24.88463091011294</v>
+        <v>24.88463091011274</v>
       </c>
       <c r="H53" t="n">
-        <v>144.5781074537341</v>
+        <v>144.578107453734</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>-10.47355679777678</v>
+        <v>-10.47355679777639</v>
       </c>
       <c r="H54" t="n">
-        <v>144.848567747452</v>
+        <v>144.8485677474521</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-26.35129900381242</v>
+        <v>-26.35129900381222</v>
       </c>
       <c r="H55" t="n">
-        <v>144.9980070298885</v>
+        <v>144.9980070298886</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>169.622290500997</v>
+        <v>169.6222905009968</v>
       </c>
       <c r="H59" t="n">
-        <v>105.8595298676482</v>
+        <v>105.8595298676481</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>222.9156230696852</v>
+        <v>222.9156230696856</v>
       </c>
       <c r="H60" t="n">
-        <v>106.5377051943902</v>
+        <v>106.5377051943904</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>121.9528474651252</v>
+        <v>121.9528474651254</v>
       </c>
       <c r="H61" t="n">
-        <v>106.3845388525726</v>
+        <v>106.3845388525727</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>140.2038531799512</v>
+        <v>140.2038531799514</v>
       </c>
       <c r="H62" t="n">
-        <v>91.67287685370199</v>
+        <v>91.67287685370209</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>121.3813750888916</v>
+        <v>121.3813750888914</v>
       </c>
       <c r="H65" t="n">
-        <v>81.12932965885045</v>
+        <v>81.12932965885032</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>155.8001435401059</v>
+        <v>155.8001435401063</v>
       </c>
       <c r="H66" t="n">
-        <v>81.45218631294183</v>
+        <v>81.45218631294208</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>186.047873952542</v>
+        <v>186.0478739525422</v>
       </c>
       <c r="H67" t="n">
-        <v>81.85215578182596</v>
+        <v>81.85215578182607</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>142.7394082017904</v>
+        <v>142.7394082017905</v>
       </c>
       <c r="H68" t="n">
-        <v>79.21149388538041</v>
+        <v>79.21149388538053</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>124.1224483483498</v>
+        <v>124.1224483483496</v>
       </c>
       <c r="H71" t="n">
-        <v>83.33905056681137</v>
+        <v>83.33905056681127</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>271.8232183784316</v>
+        <v>271.823218378432</v>
       </c>
       <c r="H72" t="n">
-        <v>83.84118296390371</v>
+        <v>83.84118296390393</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>251.8601582392688</v>
+        <v>251.860158239269</v>
       </c>
       <c r="H73" t="n">
-        <v>84.1797932085578</v>
+        <v>84.17979320855792</v>
       </c>
     </row>
     <row r="74">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>86.15400172541482</v>
+        <v>86.15400172541462</v>
       </c>
       <c r="H75" t="n">
-        <v>87.86486850948214</v>
+        <v>87.86486850948204</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>179.5384595759092</v>
+        <v>179.5384595759096</v>
       </c>
       <c r="H76" t="n">
-        <v>89.46992509119755</v>
+        <v>89.46992509119777</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>-18.54692588210916</v>
+        <v>-18.54692588210936</v>
       </c>
       <c r="H78" t="n">
-        <v>132.5277581671689</v>
+        <v>132.5277581671688</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>-14.33371635889884</v>
+        <v>-14.33371635889913</v>
       </c>
       <c r="H79" t="n">
-        <v>132.5532521722508</v>
+        <v>132.5532521722506</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>148.5021521659805</v>
+        <v>148.5021521659807</v>
       </c>
       <c r="H81" t="n">
-        <v>112.9784502610718</v>
+        <v>112.9784502610719</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>158.6992315474891</v>
+        <v>158.6992315474889</v>
       </c>
       <c r="H82" t="n">
-        <v>87.31539067249639</v>
+        <v>87.31539067249628</v>
       </c>
     </row>
     <row r="83">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>45.97269561428414</v>
+        <v>45.97269561428395</v>
       </c>
       <c r="H83" t="n">
         <v>117.146914157407</v>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>108.8045603569599</v>
+        <v>108.8045603569601</v>
       </c>
       <c r="H84" t="n">
         <v>112.9254642989271</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>48.94383738211384</v>
+        <v>48.94383738211422</v>
       </c>
       <c r="H85" t="n">
-        <v>132.230647162268</v>
+        <v>132.2306471622682</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>125.1089552263304</v>
+        <v>125.1089552263302</v>
       </c>
       <c r="H87" t="n">
-        <v>99.43171302324689</v>
+        <v>99.4317130232468</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>166.9725521683412</v>
+        <v>166.972552168341</v>
       </c>
       <c r="H88" t="n">
-        <v>90.92095158000235</v>
+        <v>90.92095158000224</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>172.7268812855022</v>
+        <v>172.7268812855024</v>
       </c>
       <c r="H89" t="n">
-        <v>86.17749218346563</v>
+        <v>86.17749218346573</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>140.0405218789165</v>
+        <v>140.0405218789163</v>
       </c>
       <c r="H90" t="n">
-        <v>97.25955627925394</v>
+        <v>97.25955627925383</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>140.8916259743619</v>
+        <v>140.8916259743623</v>
       </c>
       <c r="H91" t="n">
-        <v>99.228780708188</v>
+        <v>99.2287807081882</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>179.8225988175332</v>
+        <v>179.8225988175336</v>
       </c>
       <c r="H92" t="n">
-        <v>84.74557027348129</v>
+        <v>84.7455702734815</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>100.0169611343739</v>
+        <v>100.0169611343741</v>
       </c>
       <c r="H93" t="n">
-        <v>91.19963490645681</v>
+        <v>91.19963490645691</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>105.8367313266352</v>
+        <v>105.8367313266349</v>
       </c>
       <c r="H94" t="n">
-        <v>79.28031438879896</v>
+        <v>79.28031438879877</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>139.9839746717678</v>
+        <v>139.9839746717681</v>
       </c>
       <c r="H95" t="n">
-        <v>79.22450991721358</v>
+        <v>79.22450991721381</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>194.7100369474102</v>
+        <v>194.71003694741</v>
       </c>
       <c r="H97" t="n">
-        <v>80.42880608497842</v>
+        <v>80.42880608497829</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>120.0519997067488</v>
+        <v>120.0519997067487</v>
       </c>
       <c r="H98" t="n">
-        <v>79.13843636746644</v>
+        <v>79.13843636746633</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>131.5404809307788</v>
+        <v>131.5404809307792</v>
       </c>
       <c r="H99" t="n">
-        <v>78.33165979250816</v>
+        <v>78.3316597925084</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>129.2300138517968</v>
+        <v>129.230013851797</v>
       </c>
       <c r="H101" t="n">
-        <v>78.2452551880742</v>
+        <v>78.24525518807432</v>
       </c>
     </row>
   </sheetData>
